--- a/assets/templates/orders/v2/cdrr_standalone.xlsx
+++ b/assets/templates/orders/v2/cdrr_standalone.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marete\Downloads\Compressed\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ADT\assets\templates\orders\v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -365,9 +365,6 @@
     <t>Efavirenz (EFV) 600mg Tabs</t>
   </si>
   <si>
-    <t>Efavirenz (EFV) 400mg tabs</t>
-  </si>
-  <si>
     <t>Lamivudine (3TC) 150mg Tabs</t>
   </si>
   <si>
@@ -468,6 +465,9 @@
   </si>
   <si>
     <t>Isoniazid (H) 300mg Tabs</t>
+  </si>
+  <si>
+    <t>Tenofovir/Lamivudine/Dolutegravir (TDF/3TC/DTG) FDC (300/300/50mg) Tabs</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1245,6 +1245,17 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1255,7 +1266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1490,6 +1501,69 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1541,68 +1615,23 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1921,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1948,37 +1977,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
+      <c r="B1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
     </row>
     <row r="2" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
       <c r="N2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2084,62 +2113,62 @@
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="2:17" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E10" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="120" t="s">
+      <c r="F10" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="120" t="s">
+      <c r="G10" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="120" t="s">
+      <c r="H10" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="120" t="s">
+      <c r="I10" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="122" t="s">
+      <c r="J10" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="124" t="s">
+      <c r="K10" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="125"/>
-      <c r="M10" s="122" t="s">
+      <c r="L10" s="109"/>
+      <c r="M10" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="126" t="s">
+      <c r="N10" s="110" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:17" s="18" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="117"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="123"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="107"/>
       <c r="K11" s="15" t="s">
         <v>25</v>
       </c>
       <c r="L11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="123"/>
-      <c r="N11" s="127"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="111"/>
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
@@ -2178,38 +2207,38 @@
       </c>
     </row>
     <row r="13" spans="2:17" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="130"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="114"/>
     </row>
     <row r="14" spans="2:17" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="113"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="97"/>
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="2:17" ht="73.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2256,56 +2285,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="29">
+        <v>124</v>
+      </c>
+      <c r="C17" s="136">
         <v>30</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="41"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="31"/>
       <c r="N17" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="69" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="91" t="s">
+    <row r="18" spans="2:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="132" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="133">
+        <v>30</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="135">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="69" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C19" s="29">
         <v>30</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="29">
-        <v>60</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="31"/>
@@ -2322,12 +2351,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="29">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="31"/>
@@ -2344,31 +2373,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="29">
-        <v>60</v>
-      </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45"/>
+        <v>30</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="33"/>
       <c r="L21" s="34"/>
-      <c r="M21" s="46"/>
+      <c r="M21" s="35"/>
       <c r="N21" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="91" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="29">
         <v>60</v>
@@ -2388,31 +2417,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="29">
-        <v>30</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="33"/>
+        <v>60</v>
+      </c>
+      <c r="D23" s="42"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="45"/>
       <c r="L23" s="34"/>
-      <c r="M23" s="35"/>
+      <c r="M23" s="46"/>
       <c r="N23" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="29">
         <v>30</v>
@@ -2432,9 +2461,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="29">
         <v>30</v>
@@ -2456,7 +2485,7 @@
     </row>
     <row r="26" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="29">
         <v>60</v>
@@ -2478,7 +2507,7 @@
     </row>
     <row r="27" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="29">
         <v>120</v>
@@ -2500,7 +2529,7 @@
     </row>
     <row r="28" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="29">
         <v>60</v>
@@ -2522,7 +2551,7 @@
     </row>
     <row r="29" spans="2:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="29">
         <v>30</v>
@@ -2544,7 +2573,7 @@
     </row>
     <row r="30" spans="2:14" s="8" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" s="29">
         <v>60</v>
@@ -2566,7 +2595,7 @@
     </row>
     <row r="31" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="29">
         <v>60</v>
@@ -2588,7 +2617,7 @@
     </row>
     <row r="32" spans="2:14" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C32" s="29">
         <v>60</v>
@@ -2610,7 +2639,7 @@
     </row>
     <row r="33" spans="2:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C33" s="29">
         <v>60</v>
@@ -2653,25 +2682,25 @@
       </c>
     </row>
     <row r="35" spans="2:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="95"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="115"/>
+      <c r="N35" s="116"/>
     </row>
     <row r="36" spans="2:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" s="29">
         <v>60</v>
@@ -2693,7 +2722,7 @@
     </row>
     <row r="37" spans="2:18" ht="54" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="29">
         <v>60</v>
@@ -2715,7 +2744,7 @@
     </row>
     <row r="38" spans="2:18" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" s="29">
         <v>60</v>
@@ -2740,7 +2769,7 @@
     </row>
     <row r="39" spans="2:18" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" s="29">
         <v>60</v>
@@ -2762,7 +2791,7 @@
     </row>
     <row r="40" spans="2:18" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="91" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C40" s="29">
         <v>90</v>
@@ -2784,7 +2813,7 @@
     </row>
     <row r="41" spans="2:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C41" s="50" t="s">
         <v>39</v>
@@ -2806,7 +2835,7 @@
     </row>
     <row r="42" spans="2:18" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="93" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C42" s="50" t="s">
         <v>39</v>
@@ -2850,7 +2879,7 @@
     </row>
     <row r="44" spans="2:18" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C44" s="50" t="s">
         <v>41</v>
@@ -2872,7 +2901,7 @@
     </row>
     <row r="45" spans="2:18" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C45" s="50" t="s">
         <v>42</v>
@@ -2916,7 +2945,7 @@
     </row>
     <row r="47" spans="2:18" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C47" s="51">
         <v>240</v>
@@ -2938,7 +2967,7 @@
     </row>
     <row r="48" spans="2:18" ht="58.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="91" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C48" s="51">
         <v>480</v>
@@ -2960,7 +2989,7 @@
     </row>
     <row r="49" spans="2:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C49" s="50" t="s">
         <v>44</v>
@@ -2982,7 +3011,7 @@
     </row>
     <row r="50" spans="2:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C50" s="50">
         <v>60</v>
@@ -3004,7 +3033,7 @@
     </row>
     <row r="51" spans="2:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C51" s="50">
         <v>60</v>
@@ -3026,7 +3055,7 @@
     </row>
     <row r="52" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C52" s="50">
         <v>60</v>
@@ -3048,7 +3077,7 @@
     </row>
     <row r="53" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C53" s="50">
         <v>60</v>
@@ -3070,7 +3099,7 @@
     </row>
     <row r="54" spans="2:14" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B54" s="93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C54" s="50" t="s">
         <v>46</v>
@@ -3091,25 +3120,25 @@
       </c>
     </row>
     <row r="55" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="96" t="s">
+      <c r="B55" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="96"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="96"/>
-      <c r="I55" s="96"/>
-      <c r="J55" s="96"/>
-      <c r="K55" s="96"/>
-      <c r="L55" s="96"/>
-      <c r="M55" s="96"/>
-      <c r="N55" s="97"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="117"/>
+      <c r="E55" s="117"/>
+      <c r="F55" s="117"/>
+      <c r="G55" s="117"/>
+      <c r="H55" s="117"/>
+      <c r="I55" s="117"/>
+      <c r="J55" s="117"/>
+      <c r="K55" s="117"/>
+      <c r="L55" s="117"/>
+      <c r="M55" s="117"/>
+      <c r="N55" s="118"/>
     </row>
     <row r="56" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C56" s="29">
         <v>100</v>
@@ -3131,7 +3160,7 @@
     </row>
     <row r="57" spans="2:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="91" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="52" t="s">
         <v>42</v>
@@ -3153,7 +3182,7 @@
     </row>
     <row r="58" spans="2:14" ht="57" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="91" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C58" s="29">
         <v>100</v>
@@ -3175,7 +3204,7 @@
     </row>
     <row r="59" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C59" s="53">
         <v>100</v>
@@ -3197,7 +3226,7 @@
     </row>
     <row r="60" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="91" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C60" s="53">
         <v>100</v>
@@ -3241,7 +3270,7 @@
     </row>
     <row r="62" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C62" s="29">
         <v>30</v>
@@ -3285,7 +3314,7 @@
     </row>
     <row r="64" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C64" s="29">
         <v>100</v>
@@ -3307,7 +3336,7 @@
     </row>
     <row r="65" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C65" s="53">
         <v>100</v>
@@ -3328,8 +3357,8 @@
       </c>
     </row>
     <row r="66" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="131" t="s">
-        <v>124</v>
+      <c r="B66" s="94" t="s">
+        <v>123</v>
       </c>
       <c r="C66" s="55">
         <v>100</v>
@@ -3350,7 +3379,7 @@
       </c>
     </row>
     <row r="67" spans="2:14" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="131" t="s">
+      <c r="B67" s="94" t="s">
         <v>51</v>
       </c>
       <c r="C67" s="53">
@@ -3372,24 +3401,24 @@
       </c>
     </row>
     <row r="68" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="96" t="s">
+      <c r="B68" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="96"/>
-      <c r="D68" s="96"/>
-      <c r="E68" s="96"/>
-      <c r="F68" s="96"/>
-      <c r="G68" s="96"/>
-      <c r="H68" s="96"/>
-      <c r="I68" s="96"/>
-      <c r="J68" s="96"/>
-      <c r="K68" s="96"/>
-      <c r="L68" s="96"/>
-      <c r="M68" s="96"/>
-      <c r="N68" s="97"/>
+      <c r="C68" s="117"/>
+      <c r="D68" s="117"/>
+      <c r="E68" s="117"/>
+      <c r="F68" s="117"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="117"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="117"/>
+      <c r="M68" s="117"/>
+      <c r="N68" s="118"/>
     </row>
     <row r="69" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="131" t="s">
+      <c r="B69" s="94" t="s">
         <v>53</v>
       </c>
       <c r="C69" s="55">
@@ -3411,7 +3440,7 @@
       </c>
     </row>
     <row r="70" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="131" t="s">
+      <c r="B70" s="94" t="s">
         <v>54</v>
       </c>
       <c r="C70" s="55">
@@ -3433,7 +3462,7 @@
       </c>
     </row>
     <row r="71" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="131" t="s">
+      <c r="B71" s="94" t="s">
         <v>55</v>
       </c>
       <c r="C71" s="55">
@@ -3465,64 +3494,64 @@
       <c r="N74" s="57"/>
     </row>
     <row r="75" spans="2:14" s="59" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="98"/>
-      <c r="C75" s="98"/>
-      <c r="D75" s="98"/>
-      <c r="E75" s="98"/>
-      <c r="F75" s="98"/>
-      <c r="G75" s="98"/>
-      <c r="H75" s="98"/>
-      <c r="I75" s="98"/>
-      <c r="J75" s="98"/>
-      <c r="K75" s="98"/>
-      <c r="L75" s="98"/>
-      <c r="M75" s="98"/>
-      <c r="N75" s="98"/>
+      <c r="B75" s="119"/>
+      <c r="C75" s="119"/>
+      <c r="D75" s="119"/>
+      <c r="E75" s="119"/>
+      <c r="F75" s="119"/>
+      <c r="G75" s="119"/>
+      <c r="H75" s="119"/>
+      <c r="I75" s="119"/>
+      <c r="J75" s="119"/>
+      <c r="K75" s="119"/>
+      <c r="L75" s="119"/>
+      <c r="M75" s="119"/>
+      <c r="N75" s="119"/>
     </row>
     <row r="76" spans="2:14" s="59" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="98"/>
-      <c r="C76" s="98"/>
-      <c r="D76" s="98"/>
-      <c r="E76" s="98"/>
-      <c r="F76" s="98"/>
-      <c r="G76" s="98"/>
-      <c r="H76" s="98"/>
-      <c r="I76" s="98"/>
-      <c r="J76" s="98"/>
-      <c r="K76" s="98"/>
-      <c r="L76" s="98"/>
-      <c r="M76" s="98"/>
-      <c r="N76" s="98"/>
+      <c r="B76" s="119"/>
+      <c r="C76" s="119"/>
+      <c r="D76" s="119"/>
+      <c r="E76" s="119"/>
+      <c r="F76" s="119"/>
+      <c r="G76" s="119"/>
+      <c r="H76" s="119"/>
+      <c r="I76" s="119"/>
+      <c r="J76" s="119"/>
+      <c r="K76" s="119"/>
+      <c r="L76" s="119"/>
+      <c r="M76" s="119"/>
+      <c r="N76" s="119"/>
     </row>
     <row r="77" spans="2:14" s="59" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="98"/>
-      <c r="C77" s="98"/>
-      <c r="D77" s="98"/>
-      <c r="E77" s="98"/>
-      <c r="F77" s="98"/>
-      <c r="G77" s="98"/>
-      <c r="H77" s="98"/>
-      <c r="I77" s="98"/>
-      <c r="J77" s="98"/>
-      <c r="K77" s="98"/>
-      <c r="L77" s="98"/>
-      <c r="M77" s="98"/>
-      <c r="N77" s="98"/>
+      <c r="B77" s="119"/>
+      <c r="C77" s="119"/>
+      <c r="D77" s="119"/>
+      <c r="E77" s="119"/>
+      <c r="F77" s="119"/>
+      <c r="G77" s="119"/>
+      <c r="H77" s="119"/>
+      <c r="I77" s="119"/>
+      <c r="J77" s="119"/>
+      <c r="K77" s="119"/>
+      <c r="L77" s="119"/>
+      <c r="M77" s="119"/>
+      <c r="N77" s="119"/>
     </row>
     <row r="78" spans="2:14" s="59" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="99"/>
-      <c r="C78" s="99"/>
-      <c r="D78" s="99"/>
-      <c r="E78" s="99"/>
-      <c r="F78" s="99"/>
-      <c r="G78" s="99"/>
-      <c r="H78" s="99"/>
-      <c r="I78" s="99"/>
-      <c r="J78" s="99"/>
-      <c r="K78" s="99"/>
-      <c r="L78" s="99"/>
-      <c r="M78" s="99"/>
-      <c r="N78" s="99"/>
+      <c r="B78" s="120"/>
+      <c r="C78" s="120"/>
+      <c r="D78" s="120"/>
+      <c r="E78" s="120"/>
+      <c r="F78" s="120"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="120"/>
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
     </row>
     <row r="79" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="80" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3586,20 +3615,20 @@
       <c r="D83" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="E83" s="100" t="s">
+      <c r="E83" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="F83" s="101"/>
-      <c r="G83" s="102" t="s">
+      <c r="F83" s="122"/>
+      <c r="G83" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="H83" s="102" t="s">
+      <c r="H83" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="I83" s="102" t="s">
+      <c r="I83" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="J83" s="107" t="s">
+      <c r="J83" s="128" t="s">
         <v>64</v>
       </c>
       <c r="L83" s="67"/>
@@ -3612,14 +3641,14 @@
       <c r="D84" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="E84" s="100" t="s">
+      <c r="E84" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="F84" s="110"/>
-      <c r="G84" s="103"/>
-      <c r="H84" s="105"/>
-      <c r="I84" s="103"/>
-      <c r="J84" s="108"/>
+      <c r="F84" s="131"/>
+      <c r="G84" s="124"/>
+      <c r="H84" s="126"/>
+      <c r="I84" s="124"/>
+      <c r="J84" s="129"/>
       <c r="L84" s="67"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
@@ -3636,10 +3665,10 @@
       <c r="F85" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="G85" s="104"/>
-      <c r="H85" s="106"/>
-      <c r="I85" s="104"/>
-      <c r="J85" s="109"/>
+      <c r="G85" s="125"/>
+      <c r="H85" s="127"/>
+      <c r="I85" s="125"/>
+      <c r="J85" s="130"/>
       <c r="L85" s="67"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
@@ -3795,6 +3824,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="B55:N55"/>
+    <mergeCell ref="B68:N68"/>
+    <mergeCell ref="B75:N78"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:G85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="E84:F84"/>
     <mergeCell ref="B14:N14"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:M2"/>
@@ -3811,16 +3850,6 @@
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="B13:N13"/>
-    <mergeCell ref="B35:N35"/>
-    <mergeCell ref="B55:N55"/>
-    <mergeCell ref="B68:N68"/>
-    <mergeCell ref="B75:N78"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:G85"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="J83:J85"/>
-    <mergeCell ref="E84:F84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/templates/orders/v2/cdrr_standalone.xlsx
+++ b/assets/templates/orders/v2/cdrr_standalone.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1504,6 +1504,75 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1562,75 +1631,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1950,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1977,37 +1977,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
+      <c r="B1" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
     </row>
     <row r="2" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
       <c r="N2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2113,62 +2113,62 @@
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="2:17" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="104" t="s">
+      <c r="F10" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="104" t="s">
+      <c r="H10" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="104" t="s">
+      <c r="I10" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="106" t="s">
+      <c r="J10" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="108" t="s">
+      <c r="K10" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="109"/>
-      <c r="M10" s="106" t="s">
+      <c r="L10" s="132"/>
+      <c r="M10" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="110" t="s">
+      <c r="N10" s="133" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:17" s="18" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="101"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="107"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="130"/>
       <c r="K11" s="15" t="s">
         <v>25</v>
       </c>
       <c r="L11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="107"/>
-      <c r="N11" s="111"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="134"/>
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
@@ -2207,38 +2207,38 @@
       </c>
     </row>
     <row r="13" spans="2:17" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="114"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="137"/>
     </row>
     <row r="14" spans="2:17" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="97"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="120"/>
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="2:17" ht="73.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2289,7 +2289,7 @@
       <c r="B17" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="136">
+      <c r="C17" s="99">
         <v>30</v>
       </c>
       <c r="D17" s="31"/>
@@ -2300,7 +2300,7 @@
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
-      <c r="L17" s="137"/>
+      <c r="L17" s="100"/>
       <c r="M17" s="31"/>
       <c r="N17" s="36">
         <f t="shared" si="0"/>
@@ -2308,10 +2308,10 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="133">
+      <c r="C18" s="96">
         <v>30</v>
       </c>
       <c r="D18" s="37"/>
@@ -2322,9 +2322,9 @@
       <c r="I18" s="38"/>
       <c r="J18" s="39"/>
       <c r="K18" s="40"/>
-      <c r="L18" s="134"/>
+      <c r="L18" s="97"/>
       <c r="M18" s="41"/>
-      <c r="N18" s="135">
+      <c r="N18" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>85</v>
       </c>
       <c r="C21" s="29">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="31"/>
@@ -2682,21 +2682,21 @@
       </c>
     </row>
     <row r="35" spans="2:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="115" t="s">
+      <c r="B35" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="115"/>
-      <c r="N35" s="116"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="101"/>
+      <c r="N35" s="102"/>
     </row>
     <row r="36" spans="2:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="91" t="s">
@@ -3120,21 +3120,21 @@
       </c>
     </row>
     <row r="55" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="117" t="s">
+      <c r="B55" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="117"/>
-      <c r="D55" s="117"/>
-      <c r="E55" s="117"/>
-      <c r="F55" s="117"/>
-      <c r="G55" s="117"/>
-      <c r="H55" s="117"/>
-      <c r="I55" s="117"/>
-      <c r="J55" s="117"/>
-      <c r="K55" s="117"/>
-      <c r="L55" s="117"/>
-      <c r="M55" s="117"/>
-      <c r="N55" s="118"/>
+      <c r="C55" s="103"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="103"/>
+      <c r="F55" s="103"/>
+      <c r="G55" s="103"/>
+      <c r="H55" s="103"/>
+      <c r="I55" s="103"/>
+      <c r="J55" s="103"/>
+      <c r="K55" s="103"/>
+      <c r="L55" s="103"/>
+      <c r="M55" s="103"/>
+      <c r="N55" s="104"/>
     </row>
     <row r="56" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="91" t="s">
@@ -3401,21 +3401,21 @@
       </c>
     </row>
     <row r="68" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="117" t="s">
+      <c r="B68" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="117"/>
-      <c r="D68" s="117"/>
-      <c r="E68" s="117"/>
-      <c r="F68" s="117"/>
-      <c r="G68" s="117"/>
-      <c r="H68" s="117"/>
-      <c r="I68" s="117"/>
-      <c r="J68" s="117"/>
-      <c r="K68" s="117"/>
-      <c r="L68" s="117"/>
-      <c r="M68" s="117"/>
-      <c r="N68" s="118"/>
+      <c r="C68" s="103"/>
+      <c r="D68" s="103"/>
+      <c r="E68" s="103"/>
+      <c r="F68" s="103"/>
+      <c r="G68" s="103"/>
+      <c r="H68" s="103"/>
+      <c r="I68" s="103"/>
+      <c r="J68" s="103"/>
+      <c r="K68" s="103"/>
+      <c r="L68" s="103"/>
+      <c r="M68" s="103"/>
+      <c r="N68" s="104"/>
     </row>
     <row r="69" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="94" t="s">
@@ -3494,64 +3494,64 @@
       <c r="N74" s="57"/>
     </row>
     <row r="75" spans="2:14" s="59" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="119"/>
-      <c r="C75" s="119"/>
-      <c r="D75" s="119"/>
-      <c r="E75" s="119"/>
-      <c r="F75" s="119"/>
-      <c r="G75" s="119"/>
-      <c r="H75" s="119"/>
-      <c r="I75" s="119"/>
-      <c r="J75" s="119"/>
-      <c r="K75" s="119"/>
-      <c r="L75" s="119"/>
-      <c r="M75" s="119"/>
-      <c r="N75" s="119"/>
+      <c r="B75" s="105"/>
+      <c r="C75" s="105"/>
+      <c r="D75" s="105"/>
+      <c r="E75" s="105"/>
+      <c r="F75" s="105"/>
+      <c r="G75" s="105"/>
+      <c r="H75" s="105"/>
+      <c r="I75" s="105"/>
+      <c r="J75" s="105"/>
+      <c r="K75" s="105"/>
+      <c r="L75" s="105"/>
+      <c r="M75" s="105"/>
+      <c r="N75" s="105"/>
     </row>
     <row r="76" spans="2:14" s="59" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="119"/>
-      <c r="C76" s="119"/>
-      <c r="D76" s="119"/>
-      <c r="E76" s="119"/>
-      <c r="F76" s="119"/>
-      <c r="G76" s="119"/>
-      <c r="H76" s="119"/>
-      <c r="I76" s="119"/>
-      <c r="J76" s="119"/>
-      <c r="K76" s="119"/>
-      <c r="L76" s="119"/>
-      <c r="M76" s="119"/>
-      <c r="N76" s="119"/>
+      <c r="B76" s="105"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="105"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="105"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="105"/>
+      <c r="I76" s="105"/>
+      <c r="J76" s="105"/>
+      <c r="K76" s="105"/>
+      <c r="L76" s="105"/>
+      <c r="M76" s="105"/>
+      <c r="N76" s="105"/>
     </row>
     <row r="77" spans="2:14" s="59" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="119"/>
-      <c r="C77" s="119"/>
-      <c r="D77" s="119"/>
-      <c r="E77" s="119"/>
-      <c r="F77" s="119"/>
-      <c r="G77" s="119"/>
-      <c r="H77" s="119"/>
-      <c r="I77" s="119"/>
-      <c r="J77" s="119"/>
-      <c r="K77" s="119"/>
-      <c r="L77" s="119"/>
-      <c r="M77" s="119"/>
-      <c r="N77" s="119"/>
+      <c r="B77" s="105"/>
+      <c r="C77" s="105"/>
+      <c r="D77" s="105"/>
+      <c r="E77" s="105"/>
+      <c r="F77" s="105"/>
+      <c r="G77" s="105"/>
+      <c r="H77" s="105"/>
+      <c r="I77" s="105"/>
+      <c r="J77" s="105"/>
+      <c r="K77" s="105"/>
+      <c r="L77" s="105"/>
+      <c r="M77" s="105"/>
+      <c r="N77" s="105"/>
     </row>
     <row r="78" spans="2:14" s="59" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="120"/>
-      <c r="C78" s="120"/>
-      <c r="D78" s="120"/>
-      <c r="E78" s="120"/>
-      <c r="F78" s="120"/>
-      <c r="G78" s="120"/>
-      <c r="H78" s="120"/>
-      <c r="I78" s="120"/>
-      <c r="J78" s="120"/>
-      <c r="K78" s="120"/>
-      <c r="L78" s="120"/>
-      <c r="M78" s="120"/>
-      <c r="N78" s="120"/>
+      <c r="B78" s="106"/>
+      <c r="C78" s="106"/>
+      <c r="D78" s="106"/>
+      <c r="E78" s="106"/>
+      <c r="F78" s="106"/>
+      <c r="G78" s="106"/>
+      <c r="H78" s="106"/>
+      <c r="I78" s="106"/>
+      <c r="J78" s="106"/>
+      <c r="K78" s="106"/>
+      <c r="L78" s="106"/>
+      <c r="M78" s="106"/>
+      <c r="N78" s="106"/>
     </row>
     <row r="79" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="80" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3615,20 +3615,20 @@
       <c r="D83" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="E83" s="121" t="s">
+      <c r="E83" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="F83" s="122"/>
-      <c r="G83" s="123" t="s">
+      <c r="F83" s="108"/>
+      <c r="G83" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="H83" s="123" t="s">
+      <c r="H83" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="I83" s="123" t="s">
+      <c r="I83" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="J83" s="128" t="s">
+      <c r="J83" s="114" t="s">
         <v>64</v>
       </c>
       <c r="L83" s="67"/>
@@ -3641,14 +3641,14 @@
       <c r="D84" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="E84" s="121" t="s">
+      <c r="E84" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="F84" s="131"/>
-      <c r="G84" s="124"/>
-      <c r="H84" s="126"/>
-      <c r="I84" s="124"/>
-      <c r="J84" s="129"/>
+      <c r="F84" s="117"/>
+      <c r="G84" s="110"/>
+      <c r="H84" s="112"/>
+      <c r="I84" s="110"/>
+      <c r="J84" s="115"/>
       <c r="L84" s="67"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
@@ -3665,10 +3665,10 @@
       <c r="F85" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="G85" s="125"/>
-      <c r="H85" s="127"/>
-      <c r="I85" s="125"/>
-      <c r="J85" s="130"/>
+      <c r="G85" s="111"/>
+      <c r="H85" s="113"/>
+      <c r="I85" s="111"/>
+      <c r="J85" s="116"/>
       <c r="L85" s="67"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
@@ -3824,16 +3824,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B35:N35"/>
-    <mergeCell ref="B55:N55"/>
-    <mergeCell ref="B68:N68"/>
-    <mergeCell ref="B75:N78"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:G85"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="J83:J85"/>
-    <mergeCell ref="E84:F84"/>
     <mergeCell ref="B14:N14"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:M2"/>
@@ -3850,6 +3840,16 @@
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="B13:N13"/>
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="B55:N55"/>
+    <mergeCell ref="B68:N68"/>
+    <mergeCell ref="B75:N78"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:G85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="E84:F84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
